--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
@@ -88,16 +97,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.79540455543909</v>
+        <v>2.974788</v>
       </c>
       <c r="H2">
-        <v>2.79540455543909</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>73.16628233244921</v>
+        <v>150.09522408474</v>
       </c>
       <c r="R2">
-        <v>73.16628233244921</v>
+        <v>1350.85701676266</v>
       </c>
       <c r="S2">
-        <v>0.1113266536609365</v>
+        <v>0.1336007205323473</v>
       </c>
       <c r="T2">
-        <v>0.1113266536609365</v>
+        <v>0.1336007205323473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.79540455543909</v>
+        <v>2.974788</v>
       </c>
       <c r="H3">
-        <v>2.79540455543909</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>414.4425292711837</v>
+        <v>444.033559323024</v>
       </c>
       <c r="R3">
-        <v>414.4425292711837</v>
+        <v>3996.302033907216</v>
       </c>
       <c r="S3">
-        <v>0.6305978443580588</v>
+        <v>0.3952371158232617</v>
       </c>
       <c r="T3">
-        <v>0.6305978443580588</v>
+        <v>0.3952371158232617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.79540455543909</v>
+        <v>2.974788</v>
       </c>
       <c r="H4">
-        <v>2.79540455543909</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>32.84691136907797</v>
+        <v>39.520725924108</v>
       </c>
       <c r="R4">
-        <v>32.84691136907797</v>
+        <v>355.686533316972</v>
       </c>
       <c r="S4">
-        <v>0.04997844101469479</v>
+        <v>0.03517765133180582</v>
       </c>
       <c r="T4">
-        <v>0.04997844101469479</v>
+        <v>0.03517765133180582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.79540455543909</v>
+        <v>2.974788</v>
       </c>
       <c r="H5">
-        <v>2.79540455543909</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>47.78228522933437</v>
+        <v>51.834641707392</v>
       </c>
       <c r="R5">
-        <v>47.78228522933437</v>
+        <v>466.511775366528</v>
       </c>
       <c r="S5">
-        <v>0.07270346051865775</v>
+        <v>0.04613834665874425</v>
       </c>
       <c r="T5">
-        <v>0.07270346051865775</v>
+        <v>0.04613834665874424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.79540455543909</v>
+        <v>2.974788</v>
       </c>
       <c r="H6">
-        <v>2.79540455543909</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7032830172353263</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>10.60938526021798</v>
+        <v>11.363960865708</v>
       </c>
       <c r="R6">
-        <v>10.60938526021798</v>
+        <v>102.275647791372</v>
       </c>
       <c r="S6">
-        <v>0.016142782177357</v>
+        <v>0.01011513436898452</v>
       </c>
       <c r="T6">
-        <v>0.016142782177357</v>
+        <v>0.01011513436898452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.974788</v>
+      </c>
+      <c r="H7">
+        <v>8.924364000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.7032830172353263</v>
+      </c>
+      <c r="J7">
+        <v>0.7032830172353263</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N7">
+        <v>94.053487</v>
+      </c>
+      <c r="O7">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P7">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q7">
+        <v>93.26306149525202</v>
+      </c>
+      <c r="R7">
+        <v>839.3675534572681</v>
+      </c>
+      <c r="S7">
+        <v>0.08301404852018261</v>
+      </c>
+      <c r="T7">
+        <v>0.0830140485201826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6481906666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.944572</v>
+      </c>
+      <c r="I8">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="J8">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N8">
+        <v>151.367315</v>
+      </c>
+      <c r="O8">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P8">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q8">
+        <v>32.70496027379777</v>
+      </c>
+      <c r="R8">
+        <v>294.34464246418</v>
+      </c>
+      <c r="S8">
+        <v>0.02911089466174035</v>
+      </c>
+      <c r="T8">
+        <v>0.02911089466174033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6481906666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.944572</v>
+      </c>
+      <c r="I9">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="J9">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N9">
+        <v>447.796844</v>
+      </c>
+      <c r="O9">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P9">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q9">
+        <v>96.75257828119645</v>
+      </c>
+      <c r="R9">
+        <v>870.773204530768</v>
+      </c>
+      <c r="S9">
+        <v>0.08612008976669616</v>
+      </c>
+      <c r="T9">
+        <v>0.08612008976669613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6481906666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.944572</v>
+      </c>
+      <c r="I10">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="J10">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N10">
+        <v>39.855673</v>
+      </c>
+      <c r="O10">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P10">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q10">
+        <v>8.611358417439556</v>
+      </c>
+      <c r="R10">
+        <v>77.50222575695599</v>
+      </c>
+      <c r="S10">
+        <v>0.007665025295426353</v>
+      </c>
+      <c r="T10">
+        <v>0.007665025295426351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6481906666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.944572</v>
+      </c>
+      <c r="I11">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="J11">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N11">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O11">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P11">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q11">
+        <v>11.29449593206044</v>
+      </c>
+      <c r="R11">
+        <v>101.650463388544</v>
+      </c>
+      <c r="S11">
+        <v>0.01005330318652261</v>
+      </c>
+      <c r="T11">
+        <v>0.0100533031865226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6481906666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.944572</v>
+      </c>
+      <c r="I12">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="J12">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.820091</v>
+      </c>
+      <c r="N12">
+        <v>11.460273</v>
+      </c>
+      <c r="O12">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P12">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q12">
+        <v>2.476147332017334</v>
+      </c>
+      <c r="R12">
+        <v>22.285325988156</v>
+      </c>
+      <c r="S12">
+        <v>0.002204034603492749</v>
+      </c>
+      <c r="T12">
+        <v>0.002204034603492749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6481906666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.944572</v>
+      </c>
+      <c r="I13">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="J13">
+        <v>0.1532416722795409</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N13">
+        <v>94.053487</v>
+      </c>
+      <c r="O13">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P13">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q13">
+        <v>20.32153081361822</v>
+      </c>
+      <c r="R13">
+        <v>182.893777322564</v>
+      </c>
+      <c r="S13">
+        <v>0.01808832476566269</v>
+      </c>
+      <c r="T13">
+        <v>0.01808832476566268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5447753333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.634326</v>
+      </c>
+      <c r="I14">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="J14">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N14">
+        <v>151.367315</v>
+      </c>
+      <c r="O14">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P14">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q14">
+        <v>27.48705982829889</v>
+      </c>
+      <c r="R14">
+        <v>247.38353845469</v>
+      </c>
+      <c r="S14">
+        <v>0.02446640804708874</v>
+      </c>
+      <c r="T14">
+        <v>0.02446640804708873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5447753333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.634326</v>
+      </c>
+      <c r="I15">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="J15">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N15">
+        <v>447.796844</v>
+      </c>
+      <c r="O15">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P15">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q15">
+        <v>81.31622498523821</v>
+      </c>
+      <c r="R15">
+        <v>731.846024867144</v>
+      </c>
+      <c r="S15">
+        <v>0.07238009280604958</v>
+      </c>
+      <c r="T15">
+        <v>0.07238009280604957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5447753333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.634326</v>
+      </c>
+      <c r="I16">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="J16">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N16">
+        <v>39.855673</v>
+      </c>
+      <c r="O16">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P16">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q16">
+        <v>7.237462514599776</v>
+      </c>
+      <c r="R16">
+        <v>65.13716263139798</v>
+      </c>
+      <c r="S16">
+        <v>0.006442111750540977</v>
+      </c>
+      <c r="T16">
+        <v>0.006442111750540975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.79540455543909</v>
-      </c>
-      <c r="H7">
-        <v>2.79540455543909</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="N7">
-        <v>28.0368057591466</v>
-      </c>
-      <c r="O7">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="P7">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="Q7">
-        <v>78.37421453907932</v>
-      </c>
-      <c r="R7">
-        <v>78.37421453907932</v>
-      </c>
-      <c r="S7">
-        <v>0.1192508182702952</v>
-      </c>
-      <c r="T7">
-        <v>0.1192508182702952</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5447753333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.634326</v>
+      </c>
+      <c r="I17">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="J17">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N17">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O17">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P17">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q17">
+        <v>9.49251987515022</v>
+      </c>
+      <c r="R17">
+        <v>85.43267887635199</v>
+      </c>
+      <c r="S17">
+        <v>0.008449352754033659</v>
+      </c>
+      <c r="T17">
+        <v>0.008449352754033657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5447753333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.634326</v>
+      </c>
+      <c r="I18">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="J18">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.820091</v>
+      </c>
+      <c r="N18">
+        <v>11.460273</v>
+      </c>
+      <c r="O18">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P18">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q18">
+        <v>2.081091347888667</v>
+      </c>
+      <c r="R18">
+        <v>18.729822130998</v>
+      </c>
+      <c r="S18">
+        <v>0.001852392741121383</v>
+      </c>
+      <c r="T18">
+        <v>0.001852392741121383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5447753333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.634326</v>
+      </c>
+      <c r="I19">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="J19">
+        <v>0.1287927879707889</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N19">
+        <v>94.053487</v>
+      </c>
+      <c r="O19">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P19">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q19">
+        <v>17.07933991052911</v>
+      </c>
+      <c r="R19">
+        <v>153.714059194762</v>
+      </c>
+      <c r="S19">
+        <v>0.01520242987195457</v>
+      </c>
+      <c r="T19">
+        <v>0.01520242987195456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.062105</v>
+      </c>
+      <c r="H20">
+        <v>0.186315</v>
+      </c>
+      <c r="I20">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="J20">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N20">
+        <v>151.367315</v>
+      </c>
+      <c r="O20">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P20">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q20">
+        <v>3.133555699358333</v>
+      </c>
+      <c r="R20">
+        <v>28.202001294225</v>
+      </c>
+      <c r="S20">
+        <v>0.002789198002903545</v>
+      </c>
+      <c r="T20">
+        <v>0.002789198002903544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.062105</v>
+      </c>
+      <c r="H21">
+        <v>0.186315</v>
+      </c>
+      <c r="I21">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="J21">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N21">
+        <v>447.796844</v>
+      </c>
+      <c r="O21">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P21">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q21">
+        <v>9.270140998873334</v>
+      </c>
+      <c r="R21">
+        <v>83.43126898986</v>
+      </c>
+      <c r="S21">
+        <v>0.008251411891604938</v>
+      </c>
+      <c r="T21">
+        <v>0.008251411891604936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.062105</v>
+      </c>
+      <c r="H22">
+        <v>0.186315</v>
+      </c>
+      <c r="I22">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="J22">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N22">
+        <v>39.855673</v>
+      </c>
+      <c r="O22">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P22">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q22">
+        <v>0.8250788572216666</v>
+      </c>
+      <c r="R22">
+        <v>7.425709714995</v>
+      </c>
+      <c r="S22">
+        <v>0.0007344079766228048</v>
+      </c>
+      <c r="T22">
+        <v>0.0007344079766228047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.062105</v>
+      </c>
+      <c r="H23">
+        <v>0.186315</v>
+      </c>
+      <c r="I23">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="J23">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N23">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P23">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q23">
+        <v>1.082157929653333</v>
+      </c>
+      <c r="R23">
+        <v>9.739421366879998</v>
+      </c>
+      <c r="S23">
+        <v>0.0009632357059532685</v>
+      </c>
+      <c r="T23">
+        <v>0.0009632357059532683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.062105</v>
+      </c>
+      <c r="H24">
+        <v>0.186315</v>
+      </c>
+      <c r="I24">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="J24">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.820091</v>
+      </c>
+      <c r="N24">
+        <v>11.460273</v>
+      </c>
+      <c r="O24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q24">
+        <v>0.237246751555</v>
+      </c>
+      <c r="R24">
+        <v>2.135220763995</v>
+      </c>
+      <c r="S24">
+        <v>0.0002111748534637707</v>
+      </c>
+      <c r="T24">
+        <v>0.0002111748534637707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.062105</v>
+      </c>
+      <c r="H25">
+        <v>0.186315</v>
+      </c>
+      <c r="I25">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="J25">
+        <v>0.01468252251434386</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N25">
+        <v>94.053487</v>
+      </c>
+      <c r="O25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q25">
+        <v>1.947063936711667</v>
+      </c>
+      <c r="R25">
+        <v>17.523575430405</v>
+      </c>
+      <c r="S25">
+        <v>0.001733094083795531</v>
+      </c>
+      <c r="T25">
+        <v>0.001733094083795531</v>
       </c>
     </row>
   </sheetData>
